--- a/output/1Y_P53_1VAL-D.xlsx
+++ b/output/1Y_P53_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G2" s="1">
-        <v>548.1224</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1476</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2441</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1476</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E3" s="1">
+        <v>548.1224</v>
+      </c>
       <c r="F3" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G3" s="1">
-        <v>1246.3148</v>
-      </c>
       <c r="H3" s="1">
-        <v>17757.9916</v>
+        <v>7809.8673</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.0473</v>
+        <v>7809.8673</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2441</v>
+      </c>
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <v>986.6203</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9013.3797</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>986.6203</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>18744.6119</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0603</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E4" s="1">
+        <v>1246.3148</v>
+      </c>
       <c r="F4" s="1">
-        <v>641.4578</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1887.7726</v>
+        <v>635.1908</v>
       </c>
       <c r="H4" s="1">
-        <v>29565.7274</v>
+        <v>19519.4083</v>
       </c>
       <c r="I4" s="1">
-        <v>30098.662</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.944</v>
+        <v>19519.4083</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0473</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>887.9583</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30453.6857</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0595</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E5" s="1">
+        <v>1881.5056</v>
+      </c>
       <c r="F5" s="1">
-        <v>623.6283</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2511.4008</v>
+        <v>617.5355</v>
       </c>
       <c r="H5" s="1">
-        <v>40457.1604</v>
+        <v>30309.9268</v>
       </c>
       <c r="I5" s="1">
-        <v>40197.3241</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0059</v>
+        <v>30309.9268</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9447</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>789.2963</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41246.4567</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0196</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E6" s="1">
+        <v>2499.0412</v>
+      </c>
       <c r="F6" s="1">
-        <v>663.4342</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3174.835</v>
+        <v>656.9525</v>
       </c>
       <c r="H6" s="1">
-        <v>48076.2086</v>
+        <v>37842.7305</v>
       </c>
       <c r="I6" s="1">
-        <v>50295.9861</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8421</v>
+        <v>37842.7305</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.0061</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>690.6342</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48766.8428</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0484</v>
+        <v>-0.0612</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E7" s="1">
+        <v>3155.9937</v>
+      </c>
       <c r="F7" s="1">
-        <v>717.7341</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3892.5691</v>
+        <v>710.722</v>
       </c>
       <c r="H7" s="1">
-        <v>54485.4569</v>
+        <v>44175.3906</v>
       </c>
       <c r="I7" s="1">
-        <v>60394.6481</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5154</v>
+        <v>44175.3906</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8429</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>591.9722</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>55077.4291</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06279999999999999</v>
+        <v>-0.0767</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E8" s="1">
+        <v>3866.7156</v>
+      </c>
       <c r="F8" s="1">
-        <v>729.2716</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4621.8407</v>
+        <v>722.1468</v>
       </c>
       <c r="H8" s="1">
-        <v>63669.5531</v>
+        <v>53267.1014</v>
       </c>
       <c r="I8" s="1">
-        <v>70493.31020000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2522</v>
+        <v>53267.1014</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.517</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>493.3102</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64162.8633</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0141</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E9" s="1">
+        <v>4588.8624</v>
+      </c>
       <c r="F9" s="1">
-        <v>690.8138</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5312.6545</v>
+        <v>684.0647</v>
       </c>
       <c r="H9" s="1">
-        <v>77260.34110000001</v>
+        <v>66734.44990000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80591.9722</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1698</v>
+        <v>66734.44990000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2543</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>394.6481</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77654.9892</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0471</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.2363</v>
       </c>
+      <c r="E10" s="1">
+        <v>5272.9272</v>
+      </c>
       <c r="F10" s="1">
-        <v>662.8028</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5975.4573</v>
+        <v>656.3273</v>
       </c>
       <c r="H10" s="1">
-        <v>90571.79919999999</v>
+        <v>79923.3388</v>
       </c>
       <c r="I10" s="1">
-        <v>90690.6342</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1772</v>
+        <v>79923.3388</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1718</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>295.9861</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>90867.7853</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0367</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E11" s="1">
+        <v>5929.2545</v>
+      </c>
       <c r="F11" s="1">
-        <v>634.7487</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6610.2061</v>
+        <v>628.5474</v>
       </c>
       <c r="H11" s="1">
-        <v>104621.0533</v>
+        <v>93843.4966</v>
       </c>
       <c r="I11" s="1">
-        <v>100789.2963</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2475</v>
+        <v>93843.4966</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.179</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>197.3241</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104818.3774</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0392</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E12" s="1">
+        <v>6557.8018</v>
+      </c>
       <c r="F12" s="1">
-        <v>656.145</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7266.3511</v>
+        <v>649.7346</v>
       </c>
       <c r="H12" s="1">
-        <v>111255.8276</v>
+        <v>100407.1599</v>
       </c>
       <c r="I12" s="1">
-        <v>110887.9583</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2605</v>
+        <v>100407.1599</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.249</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>98.66200000000001</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>111354.4897</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0302</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E13" s="1">
+        <v>7207.5364</v>
+      </c>
       <c r="F13" s="1">
-        <v>626.8762</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7893.2272</v>
+        <v>620.7517</v>
       </c>
       <c r="H13" s="1">
-        <v>126496.8599</v>
+        <v>115507.9788</v>
       </c>
       <c r="I13" s="1">
-        <v>120986.6203</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3279</v>
+        <v>115507.9788</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2618</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10098.662</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126496.8599</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E14" s="1">
+        <v>7828.2882</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7893.2272</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7207.5364</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125554.7825</v>
       </c>
       <c r="I14" s="1">
-        <v>120986.6203</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3279</v>
+        <v>125554.7825</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.0516</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
-        <v>1420.7809</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>128017.0955</v>
+        <v>1297.3566</v>
       </c>
       <c r="O14" s="1">
-        <v>128017.0955</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128017.0955</v>
+        <v>116896.1504</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0621</v>
+        <v>0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>18.2441</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.1224</v>
       </c>
       <c r="G2" s="1">
-        <v>548.1224</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1476</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2441</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1476</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.3227</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>548.1224</v>
       </c>
       <c r="F3" s="1">
         <v>698.1924</v>
       </c>
       <c r="G3" s="1">
-        <v>1246.3148</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>17757.9916</v>
+        <v>7809.8673</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.0473</v>
+        <v>7809.8673</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2441</v>
+      </c>
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <v>986.6203</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9013.3797</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>986.6203</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>18744.6119</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0603</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.7433</v>
       </c>
       <c r="E4" s="1">
+        <v>1246.3148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>635.1908</v>
+      </c>
+      <c r="G4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1">
-        <v>669.1861</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1915.5009</v>
-      </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19519.4083</v>
       </c>
       <c r="I4" s="1">
-        <v>30535.1973</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9411</v>
+        <v>19519.4083</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0473</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10535.1973</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>451.423</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30451.423</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0594</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.1934</v>
       </c>
       <c r="E5" s="1">
+        <v>1881.5056</v>
+      </c>
+      <c r="F5" s="1">
+        <v>601.5167</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>567.5214999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2483.0223</v>
-      </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30309.9268</v>
       </c>
       <c r="I5" s="1">
-        <v>39725.2994</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.9988</v>
+        <v>30309.9268</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29740.6006</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.8068</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9190.1021</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1261.321</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41261.321</v>
+        <v>-9740.6006</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.02</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.2218</v>
       </c>
       <c r="E6" s="1">
+        <v>2483.0223</v>
+      </c>
+      <c r="F6" s="1">
+        <v>673.9938</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>739.8153</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3222.8377</v>
-      </c>
       <c r="H6" s="1">
-        <v>48803.1085</v>
+        <v>37600.1589</v>
       </c>
       <c r="I6" s="1">
-        <v>50986.6203</v>
+        <v>259.3994</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8204</v>
+        <v>37859.5583</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.1094</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-11261.321</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48803.1085</v>
+        <v>-10259.3994</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.048</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.0702</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3157.0162</v>
       </c>
       <c r="F7" s="1">
         <v>710.722</v>
       </c>
       <c r="G7" s="1">
-        <v>3933.5596</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>55059.214</v>
+        <v>44189.7025</v>
       </c>
       <c r="I7" s="1">
-        <v>60986.6203</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5042</v>
+        <v>44189.7025</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8377</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>55059.214</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06370000000000001</v>
+        <v>-0.0767</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.8476</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3867.7381</v>
       </c>
       <c r="F8" s="1">
         <v>722.1468</v>
       </c>
       <c r="G8" s="1">
-        <v>4655.7064</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>64136.0804</v>
+        <v>53281.1868</v>
       </c>
       <c r="I8" s="1">
-        <v>70986.6203</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2472</v>
+        <v>53281.1868</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5129</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64136.0804</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0142</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.6185</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4589.8849</v>
       </c>
       <c r="F9" s="1">
         <v>684.0647</v>
       </c>
       <c r="G9" s="1">
-        <v>5339.7711</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>77654.6896</v>
+        <v>66749.31939999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80986.6203</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1667</v>
+        <v>66749.31939999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2509</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77654.6896</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0475</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.2363</v>
       </c>
       <c r="E10" s="1">
+        <v>5273.9496</v>
+      </c>
+      <c r="F10" s="1">
+        <v>656.3273</v>
+      </c>
+      <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="F10" s="1">
-        <v>597.9618</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5937.733</v>
-      </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>79938.8368</v>
       </c>
       <c r="I10" s="1">
-        <v>90097.34639999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1737</v>
+        <v>79938.8368</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1689</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-9110.7261</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>889.2739</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>90889.2739</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0369</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.9097</v>
       </c>
       <c r="E11" s="1">
+        <v>5930.277</v>
+      </c>
+      <c r="F11" s="1">
+        <v>387.96</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>380.504</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6318.237</v>
-      </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93859.6795</v>
       </c>
       <c r="I11" s="1">
-        <v>96151.05070000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.218</v>
+        <v>93859.6795</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86172.3272</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.5309</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-6053.7043</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>4835.5696</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104835.5696</v>
+        <v>-6172.3272</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0391</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.3909</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6318.237</v>
       </c>
       <c r="F12" s="1">
         <v>866.0934</v>
       </c>
       <c r="G12" s="1">
-        <v>7184.3303</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96739.15790000001</v>
       </c>
       <c r="I12" s="1">
-        <v>109481.007</v>
+        <v>3827.6728</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2389</v>
+        <v>100566.8307</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99502.2836</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.7484</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13329.9563</v>
       </c>
-      <c r="O12" s="1">
-        <v>1505.6133</v>
-      </c>
-      <c r="P12" s="1">
-        <v>111505.6133</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.029</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.1095</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7184.3303</v>
       </c>
       <c r="F13" s="1">
         <v>303.502</v>
       </c>
       <c r="G13" s="1">
-        <v>7487.8323</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>115136.0777</v>
       </c>
       <c r="I13" s="1">
-        <v>114370.2717</v>
+        <v>497.7164</v>
       </c>
       <c r="J13" s="1">
-        <v>15.2741</v>
+        <v>115633.7942</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104391.5483</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.5304</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4889.2647</v>
       </c>
-      <c r="O13" s="1">
-        <v>6616.3486</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126616.3486</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0421</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.1222</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7487.8323</v>
       </c>
       <c r="F14" s="1">
         <v>-7487.8323</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>120094.3467</v>
       </c>
       <c r="I14" s="1">
-        <v>114370.2717</v>
+        <v>5608.4517</v>
       </c>
       <c r="J14" s="1">
-        <v>15.2741</v>
+        <v>125702.7984</v>
       </c>
       <c r="K14" s="1">
+        <v>104391.5483</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13.9415</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
-        <v>1347.8098</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>121442.1565</v>
+        <v>1293.1795</v>
       </c>
       <c r="O14" s="1">
-        <v>128058.5051</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128058.5051</v>
+        <v>121387.5261</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0626</v>
+        <v>0.0005</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>18.2441</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.1224</v>
       </c>
       <c r="G2" s="1">
-        <v>548.1224</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1476</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2441</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1476</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.3227</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>548.1224</v>
       </c>
       <c r="F3" s="1">
         <v>698.1924</v>
       </c>
       <c r="G3" s="1">
-        <v>1246.3148</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>17757.9916</v>
+        <v>7809.8673</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.0473</v>
+        <v>7809.8673</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2441</v>
+      </c>
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <v>986.6203</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9013.3797</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>986.6203</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>18744.6119</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0603</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.7433</v>
       </c>
       <c r="E4" s="1">
+        <v>1246.3148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>635.1908</v>
+      </c>
+      <c r="G4" s="1">
         <v>30150.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>678.7796</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1925.0943</v>
-      </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>19519.4083</v>
       </c>
       <c r="I4" s="1">
-        <v>30686.2301</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9401</v>
+        <v>19519.4083</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0473</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10686.2301</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>300.3902</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30450.6402</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0594</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.1934</v>
       </c>
       <c r="E5" s="1">
+        <v>1881.5056</v>
+      </c>
+      <c r="F5" s="1">
+        <v>620.2015</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>576.6128</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2501.7072</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30309.9268</v>
       </c>
       <c r="I5" s="1">
-        <v>40023.5521</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.9985</v>
+        <v>30309.9268</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30043.1714</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9676</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9337.322</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>963.0682</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41264.0695</v>
+        <v>-10043.1714</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0201</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.2218</v>
       </c>
       <c r="E6" s="1">
+        <v>2501.7072</v>
+      </c>
+      <c r="F6" s="1">
+        <v>654.1164</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>720.2215</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3221.9287</v>
-      </c>
       <c r="H6" s="1">
-        <v>48789.344</v>
+        <v>37883.1013</v>
       </c>
       <c r="I6" s="1">
-        <v>50986.6203</v>
+        <v>-43.1714</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8249</v>
+        <v>37839.9299</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.9891</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10963.0682</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48789.344</v>
+        <v>-9956.828600000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0483</v>
+        <v>-0.0613</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.0702</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3155.8235</v>
       </c>
       <c r="F7" s="1">
         <v>710.722</v>
       </c>
       <c r="G7" s="1">
-        <v>3932.6506</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>55046.4909</v>
+        <v>44173.0087</v>
       </c>
       <c r="I7" s="1">
-        <v>60986.6203</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5078</v>
+        <v>44173.0087</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8437</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>55046.4909</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06370000000000001</v>
+        <v>-0.0766</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.8476</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3866.5455</v>
       </c>
       <c r="F8" s="1">
         <v>722.1468</v>
       </c>
       <c r="G8" s="1">
-        <v>4654.7974</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>64123.5586</v>
+        <v>53264.7572</v>
       </c>
       <c r="I8" s="1">
-        <v>70986.6203</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2502</v>
+        <v>53264.7572</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5177</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64123.5586</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0142</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.6185</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4588.6923</v>
       </c>
       <c r="F9" s="1">
         <v>684.0647</v>
       </c>
       <c r="G9" s="1">
-        <v>5338.8622</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77641.47070000001</v>
+        <v>66731.9752</v>
       </c>
       <c r="I9" s="1">
-        <v>80986.6203</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1693</v>
+        <v>66731.9752</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2549</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77641.47070000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0475</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.2363</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5272.757</v>
       </c>
       <c r="F10" s="1">
         <v>656.3273</v>
       </c>
       <c r="G10" s="1">
-        <v>5995.1895</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>90870.8855</v>
+        <v>79920.7595</v>
       </c>
       <c r="I10" s="1">
-        <v>90986.6203</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1766</v>
+        <v>79920.7595</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1723</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>90870.8855</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0368</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.9097</v>
       </c>
       <c r="E11" s="1">
+        <v>5929.0843</v>
+      </c>
+      <c r="F11" s="1">
+        <v>533.2251</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>467.12</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6462.3094</v>
-      </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>93840.8033</v>
       </c>
       <c r="I11" s="1">
-        <v>98418.35890000001</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2296</v>
+        <v>93840.8033</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88483.4519</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9236</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-7431.7385</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2568.2615</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104848.5255</v>
+        <v>-8483.4519</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0394</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.3909</v>
       </c>
       <c r="E12" s="1">
+        <v>6462.3094</v>
+      </c>
+      <c r="F12" s="1">
+        <v>748.27</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>816.6034</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7278.9129</v>
-      </c>
       <c r="H12" s="1">
-        <v>111448.1627</v>
+        <v>98945.0662</v>
       </c>
       <c r="I12" s="1">
-        <v>110986.6203</v>
+        <v>1516.5481</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2477</v>
+        <v>100461.6143</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.4743</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12568.2615</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>111448.1627</v>
+        <v>-11516.5481</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0296</v>
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.1095</v>
       </c>
       <c r="E13" s="1">
+        <v>7210.5794</v>
+      </c>
+      <c r="F13" s="1">
+        <v>486.6391</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>418.3056</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7697.2185</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>115556.7456</v>
       </c>
       <c r="I13" s="1">
-        <v>117725.3151</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.2945</v>
+        <v>115556.7456</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107839.5125</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.9557</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-6738.6948</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>3261.3052</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126616.929</v>
+        <v>-7839.5125</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0426</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.1222</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7697.2185</v>
       </c>
       <c r="F14" s="1">
         <v>-7697.2185</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123452.6087</v>
       </c>
       <c r="I14" s="1">
-        <v>117725.3151</v>
+        <v>2160.4875</v>
       </c>
       <c r="J14" s="1">
-        <v>15.2945</v>
+        <v>125613.0961</v>
       </c>
       <c r="K14" s="1">
+        <v>107839.5125</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.0102</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
-        <v>1385.4993</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>124838.108</v>
+        <v>1297.9043</v>
       </c>
       <c r="O14" s="1">
-        <v>128099.4132</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128099.4132</v>
+        <v>124750.513</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0623</v>
+        <v>0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>18.2441</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.1224</v>
       </c>
       <c r="G2" s="1">
-        <v>548.1224</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1476</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2441</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1476</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.3227</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>548.1224</v>
       </c>
       <c r="F3" s="1">
         <v>698.1924</v>
       </c>
       <c r="G3" s="1">
-        <v>1246.3148</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>17757.9916</v>
+        <v>7809.8673</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.0473</v>
+        <v>7809.8673</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2441</v>
+      </c>
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <v>986.6203</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9013.3797</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>986.6203</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>18744.6119</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0603</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.7433</v>
       </c>
       <c r="E4" s="1">
+        <v>1246.3148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>635.1908</v>
+      </c>
+      <c r="G4" s="1">
         <v>30301</v>
       </c>
-      <c r="F4" s="1">
-        <v>688.4049</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1934.7197</v>
-      </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>19519.4083</v>
       </c>
       <c r="I4" s="1">
-        <v>30837.7655</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9391</v>
+        <v>19519.4083</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0473</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10837.7655</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>148.8548</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30449.8548</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0593</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.1934</v>
       </c>
       <c r="E5" s="1">
+        <v>1881.5056</v>
+      </c>
+      <c r="F5" s="1">
+        <v>617.5355</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>585.7969000000001</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2520.5166</v>
-      </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30309.9268</v>
       </c>
       <c r="I5" s="1">
-        <v>40323.8085</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.9982</v>
+        <v>30309.9268</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9447</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9486.0429</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>662.8119</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41266.8219</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0202</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.2218</v>
       </c>
       <c r="E6" s="1">
+        <v>2499.0412</v>
+      </c>
+      <c r="F6" s="1">
+        <v>656.9525</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>700.4961</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3221.0127</v>
-      </c>
       <c r="H6" s="1">
-        <v>48775.4734</v>
+        <v>37842.7305</v>
       </c>
       <c r="I6" s="1">
-        <v>50986.6203</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8294</v>
+        <v>37842.7305</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.0061</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10662.8119</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48775.4734</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0486</v>
+        <v>-0.0612</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.0702</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3155.9937</v>
       </c>
       <c r="F7" s="1">
         <v>710.722</v>
       </c>
       <c r="G7" s="1">
-        <v>3931.7347</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55033.6696</v>
+        <v>44175.3906</v>
       </c>
       <c r="I7" s="1">
-        <v>60986.6203</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.5114</v>
+        <v>44175.3906</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8429</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>55033.6696</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06370000000000001</v>
+        <v>-0.0767</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.8476</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3866.7156</v>
       </c>
       <c r="F8" s="1">
         <v>722.1468</v>
       </c>
       <c r="G8" s="1">
-        <v>4653.8815</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>64110.9403</v>
+        <v>53267.1014</v>
       </c>
       <c r="I8" s="1">
-        <v>70986.6203</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2532</v>
+        <v>53267.1014</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.517</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64110.9403</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0142</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.6185</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4588.8624</v>
       </c>
       <c r="F9" s="1">
         <v>684.0647</v>
       </c>
       <c r="G9" s="1">
-        <v>5337.9462</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77628.1499</v>
+        <v>66734.44990000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80986.6203</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1719</v>
+        <v>66734.44990000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2543</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77628.1499</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0475</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.2363</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5272.9272</v>
       </c>
       <c r="F10" s="1">
         <v>656.3273</v>
       </c>
       <c r="G10" s="1">
-        <v>5994.2735</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90857.00169999999</v>
+        <v>79923.3388</v>
       </c>
       <c r="I10" s="1">
-        <v>90986.6203</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1789</v>
+        <v>79923.3388</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1718</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>90857.00169999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0368</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.9097</v>
       </c>
       <c r="E11" s="1">
+        <v>5929.2545</v>
+      </c>
+      <c r="F11" s="1">
+        <v>628.5474</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>616.0003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6610.2738</v>
-      </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>93843.4966</v>
       </c>
       <c r="I11" s="1">
-        <v>100787.0002</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.247</v>
+        <v>93843.4966</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.179</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-9800.3799</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>199.6201</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104821.7455</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0393</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.3909</v>
       </c>
       <c r="E12" s="1">
+        <v>6557.8018</v>
+      </c>
+      <c r="F12" s="1">
+        <v>649.7346</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>662.7046</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7272.9784</v>
-      </c>
       <c r="H12" s="1">
-        <v>111357.2994</v>
+        <v>100407.1599</v>
       </c>
       <c r="I12" s="1">
-        <v>110986.6203</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.2601</v>
+        <v>100407.1599</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.249</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10199.6201</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>111357.2994</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0302</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.1095</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>7207.5364</v>
       </c>
       <c r="F13" s="1">
         <v>620.7517</v>
       </c>
       <c r="G13" s="1">
-        <v>7893.7301</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126504.9189</v>
+        <v>115507.9788</v>
       </c>
       <c r="I13" s="1">
-        <v>120986.6203</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3269</v>
+        <v>115507.9788</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2618</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126504.9189</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.1222</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7828.2882</v>
       </c>
       <c r="F14" s="1">
-        <v>-7893.7301</v>
+        <v>-7828.2882</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125554.7825</v>
       </c>
       <c r="I14" s="1">
-        <v>120986.6203</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3269</v>
+        <v>125554.7825</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.0516</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
-        <v>1420.8714</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>128025.2513</v>
+        <v>1297.3566</v>
       </c>
       <c r="O14" s="1">
-        <v>128025.2513</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128025.2513</v>
+        <v>126852.1391</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0621</v>
+        <v>0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>18.2441</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>548.1224</v>
       </c>
       <c r="G2" s="1">
-        <v>548.1224</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1476</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>18.2441</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="1">
-        <v>9948.1476</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.3227</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>548.1224</v>
       </c>
       <c r="F3" s="1">
         <v>698.1924</v>
       </c>
       <c r="G3" s="1">
-        <v>1246.3148</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>17757.9916</v>
+        <v>7809.8673</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>16.0473</v>
+        <v>7809.8673</v>
       </c>
       <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>18.2441</v>
+      </c>
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <v>986.6203</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10000</v>
-      </c>
       <c r="N3" s="1">
-        <v>-9013.3797</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>986.6203</v>
+        <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>18744.6119</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0603</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.7433</v>
       </c>
       <c r="E4" s="1">
+        <v>1246.3148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>635.1908</v>
+      </c>
+      <c r="G4" s="1">
         <v>30452.25</v>
       </c>
-      <c r="F4" s="1">
-        <v>698.0623000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1944.377</v>
-      </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>19519.4083</v>
       </c>
       <c r="I4" s="1">
-        <v>30989.8036</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.9382</v>
+        <v>19519.4083</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>16.0473</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>-10989.8036</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>-3.1833</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>30449.0667</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0593</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.1934</v>
       </c>
       <c r="E5" s="1">
+        <v>1881.5056</v>
+      </c>
+      <c r="F5" s="1">
+        <v>617.5355</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>595.0741</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2539.4511</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30309.9268</v>
       </c>
       <c r="I5" s="1">
-        <v>40626.076</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.998</v>
+        <v>30309.9268</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.9447</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-9636.2724</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>360.5444</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41269.5781</v>
+        <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0203</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.2218</v>
       </c>
       <c r="E6" s="1">
+        <v>2499.0412</v>
+      </c>
+      <c r="F6" s="1">
+        <v>656.9525</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>680.6386</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3220.0897</v>
-      </c>
       <c r="H6" s="1">
-        <v>48761.4962</v>
+        <v>37842.7305</v>
       </c>
       <c r="I6" s="1">
-        <v>50986.6203</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.8339</v>
+        <v>37842.7305</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.0061</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10360.5444</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>48761.4962</v>
+        <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0489</v>
+        <v>-0.0612</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.0702</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3155.9937</v>
       </c>
       <c r="F7" s="1">
         <v>710.722</v>
       </c>
       <c r="G7" s="1">
-        <v>3930.8116</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55020.7499</v>
+        <v>44175.3906</v>
       </c>
       <c r="I7" s="1">
-        <v>60986.6203</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>15.515</v>
+        <v>44175.3906</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8429</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>55020.7499</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.06370000000000001</v>
+        <v>-0.0767</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.8476</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3866.7156</v>
       </c>
       <c r="F8" s="1">
         <v>722.1468</v>
       </c>
       <c r="G8" s="1">
-        <v>4652.9584</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>64098.2249</v>
+        <v>53267.1014</v>
       </c>
       <c r="I8" s="1">
-        <v>70986.6203</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>15.2562</v>
+        <v>53267.1014</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.517</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>64098.2249</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0142</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.6185</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4588.8624</v>
       </c>
       <c r="F9" s="1">
         <v>684.0647</v>
       </c>
       <c r="G9" s="1">
-        <v>5337.0232</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77614.7267</v>
+        <v>66734.44990000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80986.6203</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>15.1745</v>
+        <v>66734.44990000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.2543</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>77614.7267</v>
+        <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0475</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.2363</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5272.9272</v>
       </c>
       <c r="F10" s="1">
         <v>656.3273</v>
       </c>
       <c r="G10" s="1">
-        <v>5993.3505</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>90843.01119999999</v>
+        <v>79923.3388</v>
       </c>
       <c r="I10" s="1">
-        <v>90986.6203</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>15.1813</v>
+        <v>79923.3388</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.1718</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>90843.01119999999</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0368</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.9097</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5929.2545</v>
       </c>
       <c r="F11" s="1">
         <v>628.5474</v>
       </c>
       <c r="G11" s="1">
-        <v>6621.8978</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104806.1016</v>
+        <v>93843.4966</v>
       </c>
       <c r="I11" s="1">
-        <v>100986.6203</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>15.2504</v>
+        <v>93843.4966</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.179</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104806.1016</v>
+        <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0393</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.3909</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6557.8018</v>
       </c>
       <c r="F12" s="1">
         <v>649.7346</v>
       </c>
       <c r="G12" s="1">
-        <v>7271.6324</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>111336.6913</v>
+        <v>100407.1599</v>
       </c>
       <c r="I12" s="1">
-        <v>110986.6203</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>15.263</v>
+        <v>100407.1599</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.249</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>111336.6913</v>
+        <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0302</v>
+        <v>-0.0331</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.1095</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>7207.5364</v>
       </c>
       <c r="F13" s="1">
         <v>620.7517</v>
       </c>
       <c r="G13" s="1">
-        <v>7892.3842</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>126483.3485</v>
+        <v>115507.9788</v>
       </c>
       <c r="I13" s="1">
-        <v>120986.6203</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.3295</v>
+        <v>115507.9788</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.2618</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126483.3485</v>
+        <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0424</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.1222</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7828.2882</v>
       </c>
       <c r="F14" s="1">
-        <v>-7892.3842</v>
+        <v>-7828.2882</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125554.7825</v>
       </c>
       <c r="I14" s="1">
-        <v>120986.6203</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.3295</v>
+        <v>125554.7825</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>14.0516</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.2</v>
       </c>
-      <c r="L14" s="1">
-        <v>1420.6291</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>128003.4217</v>
+        <v>1297.3566</v>
       </c>
       <c r="O14" s="1">
-        <v>128003.4217</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128003.4217</v>
+        <v>126852.1391</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0621</v>
+        <v>0.0004</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.0787</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3279</v>
+        <v>14.0516</v>
       </c>
       <c r="D3" s="1">
-        <v>15.2741</v>
+        <v>13.9415</v>
       </c>
       <c r="E3" s="1">
-        <v>15.2945</v>
+        <v>14.0102</v>
       </c>
       <c r="F3" s="1">
-        <v>15.3269</v>
+        <v>14.0516</v>
       </c>
       <c r="G3" s="1">
-        <v>15.3295</v>
+        <v>14.0516</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.08160000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0335</v>
+        <v>-0.0974</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0328</v>
+        <v>-0.0958</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0327</v>
+        <v>-0.0969</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0335</v>
+        <v>-0.0974</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0339</v>
+        <v>-0.0974</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2756</v>
       </c>
       <c r="C5" s="3">
-        <v>0.16</v>
+        <v>0.2773</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1603</v>
+        <v>0.277</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1606</v>
+        <v>0.2772</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1607</v>
+        <v>0.2773</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1608</v>
+        <v>0.2773</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.37</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3364</v>
+        <v>-0.4247</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3316</v>
+        <v>-0.4194</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3298</v>
+        <v>-0.423</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3351</v>
+        <v>-0.4247</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.337</v>
+        <v>-0.4247</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1265</v>
+        <v>-0.0474</v>
       </c>
       <c r="D7" s="3">
-        <v>0.129</v>
+        <v>0.1108</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1283</v>
+        <v>0.1085</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1261</v>
+        <v>0.1071</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1256</v>
+        <v>0.1071</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2407.4012</v>
+        <v>1297.3566</v>
       </c>
       <c r="D8" s="1">
-        <v>2334.4301</v>
+        <v>1293.1795</v>
       </c>
       <c r="E8" s="1">
-        <v>2372.1197</v>
+        <v>1297.9043</v>
       </c>
       <c r="F8" s="1">
-        <v>2407.4918</v>
+        <v>1297.3566</v>
       </c>
       <c r="G8" s="1">
-        <v>2407.2495</v>
+        <v>1297.3566</v>
       </c>
     </row>
   </sheetData>
